--- a/Assets/Resources/CSV.data/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/PlayerStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>PlayerNum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>다재다능</t>
   </si>
@@ -84,6 +81,14 @@
   </si>
   <si>
     <t>속도 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSATILE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1032,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B1" sqref="B1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1052,60 +1057,60 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>

--- a/Assets/Resources/CSV.data/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/PlayerStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>다재다능</t>
   </si>
@@ -28,10 +28,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최대 HP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>HP 재생</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -89,6 +85,145 @@
   </si>
   <si>
     <t>VERSATILE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PACIFIST</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTITASKER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLADIATOR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENGINEER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLDIER</t>
+  </si>
+  <si>
+    <t>레인저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화주의자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티태스커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>검투사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔지니어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>황소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>군인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소 대미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 HP (기본 체력 10)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모품 회복량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득량 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시 획득 확률 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 대미지 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 범위 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 HP 회복 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 크기 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>튕김</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통 대미지 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 대미지(%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 두배 획득 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자 안의 재료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 초기화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 속도 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 가격 (%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 (%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1029,130 +1164,1036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2"/>
+    <col min="18" max="18" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6.875" style="2" customWidth="1"/>
+    <col min="27" max="28" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9" style="2"/>
+    <col min="34" max="34" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
         <v>15</v>
       </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>5</v>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>200</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/PlayerStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>다재다능</t>
   </si>
@@ -225,6 +225,52 @@
   <si>
     <t>적 (%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수확</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 태그</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangedDamage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MeleeDamage</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>HPRegeneration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive</t>
+  </si>
+  <si>
+    <t>StandStill</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1180,33 +1226,39 @@
     <col min="6" max="6" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="2" customWidth="1"/>
     <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2"/>
-    <col min="18" max="18" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="2" customWidth="1"/>
     <col min="19" max="19" width="14.75" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="6.875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9" style="2"/>
-    <col min="34" max="34" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="37" max="37" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,67 +1308,76 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1366,14 +1427,14 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2">
         <v>5</v>
       </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
       <c r="T2" s="2">
         <v>0</v>
       </c>
@@ -1425,8 +1486,17 @@
       <c r="AJ2" s="2">
         <v>0</v>
       </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1535,8 +1605,20 @@
       <c r="AJ3" s="2">
         <v>0</v>
       </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1645,8 +1727,23 @@
       <c r="AJ4" s="2">
         <v>0</v>
       </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1755,8 +1852,17 @@
       <c r="AJ5" s="2">
         <v>0</v>
       </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1865,8 +1971,17 @@
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1975,8 +2090,17 @@
       <c r="AJ7" s="2">
         <v>0</v>
       </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2085,8 +2209,23 @@
       <c r="AJ8" s="2">
         <v>0</v>
       </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2136,26 +2275,26 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>10</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
       <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
         <v>200</v>
       </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
       <c r="X9" s="2">
         <v>0</v>
       </c>
@@ -2172,14 +2311,14 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
         <v>15</v>
       </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
       <c r="AF9" s="2">
         <v>0</v>
       </c>
@@ -2194,6 +2333,15 @@
       </c>
       <c r="AJ9" s="2">
         <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/PlayerStat.xlsx
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1248,8 @@
     <col min="32" max="32" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.75" style="2" customWidth="1"/>
+    <col min="36" max="36" width="10.875" style="2" customWidth="1"/>
     <col min="37" max="37" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.375" style="2" bestFit="1" customWidth="1"/>

--- a/Assets/Resources/CSV.data/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/PlayerStat.xlsx
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/CSV.data/PlayerStat.xlsx
+++ b/Assets/Resources/CSV.data/PlayerStat.xlsx
@@ -84,10 +84,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>VERSATILE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RANGER</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -271,6 +267,9 @@
   </si>
   <si>
     <t>StandStill</t>
+  </si>
+  <si>
+    <t>WELLROUNDED</t>
   </si>
 </sst>
 </file>
@@ -635,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -750,6 +749,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -879,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,6 +897,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1267,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1285,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -1309,78 +1322,78 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1494,15 +1507,15 @@
         <v>0</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -1613,18 +1626,18 @@
         <v>0</v>
       </c>
       <c r="AM3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1735,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="AM4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1860,15 +1873,15 @@
         <v>0</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -1979,15 +1992,15 @@
         <v>0</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2098,15 +2111,15 @@
         <v>0</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>30</v>
@@ -2217,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO8" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -2342,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
